--- a/rapporter_2025/Kostra 17 - Bruer fylkesveg.xlsx
+++ b/rapporter_2025/Kostra 17 - Bruer fylkesveg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andryg\Documents\NVDB-Skripting\src\arb_kostrarapportering_2025\rapporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7356D76-27A3-4685-B032-3F37497DAA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06A371A-0900-4378-8DA9-58132A06D259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49890" yWindow="1740" windowWidth="23445" windowHeight="18975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35370" yWindow="1380" windowWidth="36795" windowHeight="19290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bruer fylkesveg" sheetId="1" r:id="rId1"/>
@@ -419,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="31.140625" customWidth="1"/>
+    <col min="1" max="3" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -443,167 +443,156 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>20093</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>19965</v>
+        <v>26435</v>
       </c>
       <c r="C3">
-        <v>1022</v>
+        <v>998</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>24509</v>
+        <v>23091</v>
       </c>
       <c r="C4">
-        <v>893</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>22893</v>
+        <v>8709</v>
       </c>
       <c r="C5">
-        <v>797</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>12430</v>
+        <v>15472</v>
       </c>
       <c r="C6">
-        <v>317</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>19330</v>
+        <v>11387</v>
       </c>
       <c r="C7">
-        <v>663</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>11394</v>
+        <v>26920</v>
       </c>
       <c r="C8">
-        <v>468</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>27382</v>
+        <v>6658</v>
       </c>
       <c r="C9">
-        <v>1258</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>6777</v>
+        <v>11425</v>
       </c>
       <c r="C10">
-        <v>327</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B11">
-        <v>11300</v>
+        <v>18513</v>
       </c>
       <c r="C11">
-        <v>612</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12">
-        <v>20581</v>
+        <v>45725</v>
       </c>
       <c r="C12">
-        <v>1224</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B13">
-        <v>46817</v>
+        <v>37709</v>
       </c>
       <c r="C13">
-        <v>2044</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B14">
-        <v>37973</v>
+        <v>15302</v>
       </c>
       <c r="C14">
-        <v>1331</v>
+        <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15">
-        <v>15266</v>
+        <v>3639</v>
       </c>
       <c r="C15">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>56</v>
-      </c>
-      <c r="B16">
-        <v>3427</v>
-      </c>
-      <c r="C16">
-        <v>221</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -615,13 +604,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
